--- a/reconstruction-tools-assessment/supplementary material/S4_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S4_table.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982DA643-3C14-419B-9F7F-A9932AD5EB06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="2700" yWindow="1764" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S4 Table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -169,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -597,25 +603,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>0.76297485286249334</v>
+        <v>0.73867975995635604</v>
       </c>
       <c r="C4" s="3">
-        <v>0.67304747320061253</v>
+        <v>0.63328075709779197</v>
       </c>
       <c r="D4" s="3">
-        <v>0.52376137512639032</v>
+        <v>0.52376137512638998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:E30" si="0">B4-C4</f>
-        <v>8.9927379661880802E-2</v>
+        <v>0.10539900285856407</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F30" si="1">C4-D4</f>
-        <v>0.14928609807422222</v>
+        <v>0.10951938197140199</v>
       </c>
       <c r="G4" s="3">
         <f>B4-D4</f>
-        <v>0.23921347773610302</v>
+        <v>0.21491838482996606</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -623,25 +629,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>0.76442812172088148</v>
+        <v>0.74064171122994704</v>
       </c>
       <c r="C5" s="3">
-        <v>0.67591897974493631</v>
+        <v>0.63706563706563701</v>
       </c>
       <c r="D5" s="3">
-        <v>0.50712830957230137</v>
+        <v>0.50712830957230104</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>8.8509141975945171E-2</v>
+        <v>0.10357607416431003</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>0.16879067017263494</v>
+        <v>0.12993732749333597</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" ref="G5:G32" si="2">B5-D5</f>
-        <v>0.25729981214858011</v>
+        <v>0.233513401657646</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -649,25 +655,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>0.58823529411764708</v>
+        <v>0.59576968272620501</v>
       </c>
       <c r="C6" s="3">
-        <v>0.38179347826086951</v>
+        <v>0.38789546079779902</v>
       </c>
       <c r="D6" s="3">
-        <v>0.50329380764163378</v>
+        <v>0.55936675461741403</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>0.20644181585677757</v>
+        <v>0.20787422192840599</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>-0.12150032938076427</v>
+        <v>-0.17147129381961501</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="2"/>
-        <v>8.4941486476013295E-2</v>
+        <v>3.6402928108790977E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -675,25 +681,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <v>0.63879003558718861</v>
+        <v>0.66258741258741305</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5101058710298364</v>
+        <v>0.53547776726584695</v>
       </c>
       <c r="D7" s="3">
-        <v>0.47149643705463185</v>
+        <v>0.47149643705463201</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>0.12868416455735221</v>
+        <v>0.1271096453215661</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>3.8609433975204555E-2</v>
+        <v>6.3981330211214937E-2</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="2"/>
-        <v>0.16729359853255676</v>
+        <v>0.19109097553278104</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -701,25 +707,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>0.73116793365583965</v>
+        <v>0.74074074074074103</v>
       </c>
       <c r="C8" s="3">
-        <v>0.6393210749646393</v>
+        <v>0.63835810332625598</v>
       </c>
       <c r="D8" s="3">
-        <v>0.48780487804878048</v>
+        <v>0.48780487804878098</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>9.184685869120035E-2</v>
+        <v>0.10238263741448506</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>0.15151619691585883</v>
+        <v>0.150553225277475</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="2"/>
-        <v>0.24336305560705918</v>
+        <v>0.25293586269196006</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -727,25 +733,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="3">
-        <v>0.67332382310984307</v>
+        <v>0.55791962174940901</v>
       </c>
       <c r="C9" s="3">
-        <v>0.56836902800658984</v>
+        <v>0.37260273972602698</v>
       </c>
       <c r="D9" s="3">
-        <v>0.37679558011049719</v>
+        <v>0.46245059288537599</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>0.10495479510325323</v>
+        <v>0.18531688202338203</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>0.19157344789609265</v>
+        <v>-8.9847853159349012E-2</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="2"/>
-        <v>0.29652824299934588</v>
+        <v>9.5469028864033023E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -753,25 +759,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>0.58304297328687571</v>
+        <v>0.65585851142225504</v>
       </c>
       <c r="C10" s="3">
-        <v>0.38335607094133695</v>
+        <v>0.55301102629346899</v>
       </c>
       <c r="D10" s="3">
-        <v>0.46245059288537549</v>
+        <v>0.37679558011049702</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>0.19968690234553876</v>
+        <v>0.10284748512878605</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>-7.9094521944038543E-2</v>
+        <v>0.17621544618297197</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="2"/>
-        <v>0.12059238040150022</v>
+        <v>0.27906293131175802</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -779,25 +785,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>0.79164891350660416</v>
+        <v>0.78462874511506697</v>
       </c>
       <c r="C11" s="3">
-        <v>0.72636815920398012</v>
+        <v>0.71920932589964504</v>
       </c>
       <c r="D11" s="3">
-        <v>0.42997323818019628</v>
+        <v>0.429973238180196</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>6.5280754302624033E-2</v>
+        <v>6.5419419215421937E-2</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>0.29639492102378384</v>
+        <v>0.28923608771944903</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="2"/>
-        <v>0.36167567532640787</v>
+        <v>0.35465550693487097</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -805,25 +811,25 @@
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>0.82464788732394367</v>
+        <v>0.80955777460770295</v>
       </c>
       <c r="C12" s="3">
-        <v>0.72610015174506826</v>
+        <v>0.69844961240310099</v>
       </c>
       <c r="D12" s="3">
-        <v>0.57759626604434078</v>
+        <v>0.577596266044341</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>9.8547735578875417E-2</v>
+        <v>0.11110816220460196</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>0.14850388570072748</v>
+        <v>0.12085334635875999</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="2"/>
-        <v>0.2470516212796029</v>
+        <v>0.23196150856336195</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -831,25 +837,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>0.84410876132930512</v>
+        <v>0.831398900427611</v>
       </c>
       <c r="C13" s="3">
-        <v>0.76055408970976257</v>
+        <v>0.73723118279569899</v>
       </c>
       <c r="D13" s="3">
-        <v>0.57759626604434078</v>
+        <v>0.577596266044341</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>8.3554671619542553E-2</v>
+        <v>9.4167717631912007E-2</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>0.18295782366542179</v>
+        <v>0.15963491675135799</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="2"/>
-        <v>0.26651249528496435</v>
+        <v>0.25380263438327</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -857,25 +863,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>0.81882352941176473</v>
+        <v>0.81136543014996099</v>
       </c>
       <c r="C14" s="3">
-        <v>0.71012145748987854</v>
+        <v>0.69211822660098499</v>
       </c>
       <c r="D14" s="3">
-        <v>0.57759626604434078</v>
+        <v>0.577596266044341</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>0.10870207192188619</v>
+        <v>0.119247203548976</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>0.13252519144553776</v>
+        <v>0.11452196055664399</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="2"/>
-        <v>0.24122726336742395</v>
+        <v>0.23376916410561999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -883,25 +889,25 @@
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>0.82034976152623207</v>
+        <v>0.81279999999999997</v>
       </c>
       <c r="C15" s="3">
-        <v>0.70962479608482876</v>
+        <v>0.69256198347107401</v>
       </c>
       <c r="D15" s="3">
-        <v>0.57759626604434078</v>
+        <v>0.577596266044341</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>0.11072496544140331</v>
+        <v>0.12023801652892596</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>0.13202853004048798</v>
+        <v>0.11496571742673301</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="2"/>
-        <v>0.24275349548189129</v>
+        <v>0.23520373395565897</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -909,25 +915,25 @@
         <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>0.82477128782547504</v>
+        <v>0.80969351389878796</v>
       </c>
       <c r="C16" s="3">
-        <v>0.72610015174506826</v>
+        <v>0.69844961240310099</v>
       </c>
       <c r="D16" s="3">
-        <v>0.57759626604434078</v>
+        <v>0.577596266044341</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>9.8671136080406785E-2</v>
+        <v>0.11124390149568697</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>0.14850388570072748</v>
+        <v>0.12085334635875999</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="2"/>
-        <v>0.24717502178113426</v>
+        <v>0.23209724785444696</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -935,25 +941,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>0.8060925600468658</v>
+        <v>0.80188124632569102</v>
       </c>
       <c r="C17" s="3">
-        <v>0.73450750163078937</v>
+        <v>0.70647098065376901</v>
       </c>
       <c r="D17" s="3">
-        <v>0.47293156281920323</v>
+        <v>0.47239263803680998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>7.158505841607643E-2</v>
+        <v>9.5410265671922012E-2</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>0.26157593881158614</v>
+        <v>0.23407834261695903</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="2"/>
-        <v>0.33316099722766257</v>
+        <v>0.32948860828888105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -961,25 +967,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>0.80258302583025831</v>
+        <v>0.79814814814814805</v>
       </c>
       <c r="C18" s="3">
-        <v>0.73320026613439793</v>
+        <v>0.70456092579986396</v>
       </c>
       <c r="D18" s="3">
-        <v>0.47239263803680986</v>
+        <v>0.47239263803680998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>6.9382759695860385E-2</v>
+        <v>9.3587222348284094E-2</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>0.26080762809758806</v>
+        <v>0.23216828776305398</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="2"/>
-        <v>0.33019038779344845</v>
+        <v>0.32575551011133808</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -987,25 +993,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="3">
-        <v>0.88851578240429818</v>
+        <v>0.87261580381471404</v>
       </c>
       <c r="C19" s="3">
-        <v>0.69459671104150345</v>
+        <v>0.65672844480257897</v>
       </c>
       <c r="D19" s="3">
-        <v>0.49092970521541945</v>
+        <v>0.49092970521541901</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>0.19391907136279474</v>
+        <v>0.21588735901213507</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>0.20366700582608399</v>
+        <v>0.16579873958715996</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="2"/>
-        <v>0.39758607718887873</v>
+        <v>0.38168609859929503</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1013,25 +1019,25 @@
         <v>20</v>
       </c>
       <c r="B20" s="3">
-        <v>0.88777555110220441</v>
+        <v>0.87195121951219501</v>
       </c>
       <c r="C20" s="3">
-        <v>0.69381362568519966</v>
+        <v>0.65592264302981496</v>
       </c>
       <c r="D20" s="3">
-        <v>0.49322799097065462</v>
+        <v>0.49322799097065501</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>0.19396192541700474</v>
+        <v>0.21602857648238005</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>0.20058563471454505</v>
+        <v>0.16269465205915995</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="2"/>
-        <v>0.39454756013154979</v>
+        <v>0.37872322854154</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1039,25 +1045,25 @@
         <v>21</v>
       </c>
       <c r="B21" s="3">
-        <v>0.88474810213940647</v>
+        <v>0.86834733893557403</v>
       </c>
       <c r="C21" s="3">
-        <v>0.68433734939759039</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="D21" s="3">
         <v>0.5</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>0.20041075274181608</v>
+        <v>0.22318604861299307</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>0.18433734939759039</v>
+        <v>0.14516129032258096</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="2"/>
-        <v>0.38474810213940647</v>
+        <v>0.36834733893557403</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1065,25 +1071,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>0.88404868673926973</v>
+        <v>0.86883116883116895</v>
       </c>
       <c r="C22" s="3">
-        <v>0.69646882043576253</v>
+        <v>0.65919629057187001</v>
       </c>
       <c r="D22" s="3">
-        <v>0.46502057613168724</v>
+        <v>0.46502057613168701</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>0.1875798663035072</v>
+        <v>0.20963487825929894</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>0.23144824430407529</v>
+        <v>0.194175714440183</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="2"/>
-        <v>0.41902811060758249</v>
+        <v>0.40381059269948194</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1091,25 +1097,25 @@
         <v>23</v>
       </c>
       <c r="B23" s="3">
-        <v>0.88378033205619411</v>
+        <v>0.86860841423948199</v>
       </c>
       <c r="C23" s="3">
-        <v>0.69178598342125097</v>
+        <v>0.65426356589147305</v>
       </c>
       <c r="D23" s="3">
-        <v>0.46240988671472705</v>
+        <v>0.46240988671472699</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>0.19199434863494313</v>
+        <v>0.21434484834800893</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>0.22937609670652392</v>
+        <v>0.19185367917674606</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="2"/>
-        <v>0.42137044534146706</v>
+        <v>0.40619852752475499</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1117,25 +1123,25 @@
         <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>0.88039215686274508</v>
+        <v>0.86481113320079495</v>
       </c>
       <c r="C24" s="3">
-        <v>0.68730886850152906</v>
+        <v>0.64909520062942605</v>
       </c>
       <c r="D24" s="3">
-        <v>0.46632653061224494</v>
+        <v>0.46632653061224499</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>0.19308328836121602</v>
+        <v>0.2157159325713689</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>0.22098233788928412</v>
+        <v>0.18276867001718106</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="2"/>
-        <v>0.41406562625050014</v>
+        <v>0.39848460258854995</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1143,25 +1149,25 @@
         <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>0.84375</v>
+        <v>0.83909895414320201</v>
       </c>
       <c r="C25" s="3">
-        <v>0.73456790123456783</v>
+        <v>0.72174590802805905</v>
       </c>
       <c r="D25" s="3">
-        <v>0.52835051546391754</v>
+        <v>0.52835051546391798</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>0.10918209876543217</v>
+        <v>0.11735304611514297</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>0.2062173857706503</v>
+        <v>0.19339539256414107</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="2"/>
-        <v>0.31539948453608246</v>
+        <v>0.31074843867928403</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1169,25 +1175,25 @@
         <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>0.84392156862745105</v>
+        <v>0.83845547675334897</v>
       </c>
       <c r="C26" s="3">
-        <v>0.73838080959520247</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="D26" s="3">
-        <v>0.53366583541147139</v>
+        <v>0.53366583541147095</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>0.10554075903224858</v>
+        <v>0.11345547675334899</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>0.20471497418373108</v>
+        <v>0.19133416458852903</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="2"/>
-        <v>0.31025573321597966</v>
+        <v>0.30478964134187803</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1195,25 +1201,25 @@
         <v>27</v>
       </c>
       <c r="B27" s="3">
-        <v>0.8433441558441559</v>
+        <v>0.83863080684596603</v>
       </c>
       <c r="C27" s="3">
-        <v>0.73233908948194659</v>
+        <v>0.71927042030134802</v>
       </c>
       <c r="D27" s="3">
-        <v>0.53174603174603174</v>
+        <v>0.53174603174603197</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>0.1110050663622093</v>
+        <v>0.119360386544618</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>0.20059305773591485</v>
+        <v>0.18752438855531606</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="2"/>
-        <v>0.31159812409812415</v>
+        <v>0.30688477509993406</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1221,25 +1227,25 @@
         <v>28</v>
       </c>
       <c r="B28" s="3">
-        <v>0.84036697247706416</v>
+        <v>0.83609576427256005</v>
       </c>
       <c r="C28" s="3">
-        <v>0.70783410138248848</v>
+        <v>0.69216417910447803</v>
       </c>
       <c r="D28" s="3">
-        <v>0.59777102330293819</v>
+        <v>0.59777102330293796</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>0.13253287109457568</v>
+        <v>0.14393158516808202</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>0.11006307807955029</v>
+        <v>9.4393155801540063E-2</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="2"/>
-        <v>0.24259594917412597</v>
+        <v>0.23832474096962208</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1247,25 +1253,25 @@
         <v>29</v>
       </c>
       <c r="B29" s="3">
-        <v>0.84290271132376393</v>
+        <v>0.83827061649319501</v>
       </c>
       <c r="C29" s="3">
-        <v>0.73287143956889911</v>
+        <v>0.72006220839813395</v>
       </c>
       <c r="D29" s="3">
         <v>0.52600170502983801</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>0.11003127175486482</v>
+        <v>0.11820840809506106</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>0.2068697345390611</v>
+        <v>0.19406050336829594</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="2"/>
-        <v>0.31690100629392592</v>
+        <v>0.312268911463357</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1273,25 +1279,25 @@
         <v>30</v>
       </c>
       <c r="B30" s="3">
-        <v>0.8655589123867069</v>
+        <v>0.84727551803530299</v>
       </c>
       <c r="C30" s="3">
-        <v>0.62928637627432815</v>
+        <v>0.57965451055662198</v>
       </c>
       <c r="D30" s="3">
-        <v>0.40527577937649883</v>
+        <v>0.405275779376499</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="0"/>
-        <v>0.23627253611237875</v>
+        <v>0.26762100747868101</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>0.22401059689782932</v>
+        <v>0.17437873118012298</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="2"/>
-        <v>0.46028313301020807</v>
+        <v>0.44199973865880399</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1299,25 +1305,25 @@
         <v>31</v>
       </c>
       <c r="B31" s="3">
-        <v>0.89334155363748458</v>
+        <v>0.879525593008739</v>
       </c>
       <c r="C31" s="3">
-        <v>0.74638633377135344</v>
+        <v>0.71601615074024205</v>
       </c>
       <c r="D31" s="3">
-        <v>0.57185628742514971</v>
+        <v>0.57185628742515004</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ref="E31" si="3">B31-C31</f>
-        <v>0.14695521986613114</v>
+        <v>0.16350944226849695</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ref="F31:F32" si="4">C31-D31</f>
-        <v>0.17453004634620373</v>
+        <v>0.14415986331509201</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="2"/>
-        <v>0.32148526621233486</v>
+        <v>0.30766930558358896</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1325,25 +1331,25 @@
         <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>0.89141104294478524</v>
+        <v>0.87756370416407703</v>
       </c>
       <c r="C32" s="3">
-        <v>0.7501618122977346</v>
+        <v>0.72015915119363405</v>
       </c>
       <c r="D32" s="3">
         <v>0.56539235412474897</v>
       </c>
       <c r="E32" s="5">
         <f>B32-C32</f>
-        <v>0.14124923064705064</v>
+        <v>0.15740455297044298</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="4"/>
-        <v>0.18476945817298562</v>
+        <v>0.15476679706888508</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="2"/>
-        <v>0.32601868882003626</v>
+        <v>0.31217135003932805</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1352,15 +1358,15 @@
       </c>
       <c r="B33" s="3">
         <f>MAX(B4:B32)</f>
-        <v>0.89334155363748458</v>
+        <v>0.879525593008739</v>
       </c>
       <c r="C33" s="3">
         <f>MAX(C4:C32)</f>
-        <v>0.76055408970976257</v>
+        <v>0.73723118279569899</v>
       </c>
       <c r="D33" s="3">
         <f>MAX(D4:D32)</f>
-        <v>0.59777102330293819</v>
+        <v>0.59777102330293796</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1369,15 +1375,15 @@
       </c>
       <c r="B34" s="3">
         <f>MIN(B4:B32)</f>
-        <v>0.58304297328687571</v>
+        <v>0.55791962174940901</v>
       </c>
       <c r="C34" s="3">
         <f>MIN(C4:C32)</f>
-        <v>0.38179347826086951</v>
+        <v>0.37260273972602698</v>
       </c>
       <c r="D34" s="3">
         <f>MIN(D4:D32)</f>
-        <v>0.37679558011049719</v>
+        <v>0.37679558011049702</v>
       </c>
     </row>
   </sheetData>
